--- a/Spielweise in R (Level 3)/04_poisson_analyse/04_poisson_analysis.xlsx
+++ b/Spielweise in R (Level 3)/04_poisson_analyse/04_poisson_analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/teaching/Spielweise in R (Level 3)/04_poisson_analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D26814-6C2D-E445-8081-66F6FC0DACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9463310-DFB9-C045-87D3-4F1F46CB3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" xr2:uid="{3BC47047-F65C-0A48-AEC1-47393041CD69}"/>
+    <workbookView xWindow="6620" yWindow="3520" windowWidth="27640" windowHeight="16860" xr2:uid="{3BC47047-F65C-0A48-AEC1-47393041CD69}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
-  <si>
-    <t>Kontrolle</t>
-  </si>
   <si>
     <t>strong</t>
   </si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>fruit 8</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,32 +439,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043AFDC5-9638-F840-89B6-99E625166384}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>

--- a/Spielweise in R (Level 3)/04_poisson_analyse/04_poisson_analysis.xlsx
+++ b/Spielweise in R (Level 3)/04_poisson_analyse/04_poisson_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/teaching/Spielweise in R (Level 3)/04_poisson_analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9463310-DFB9-C045-87D3-4F1F46CB3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746C8E4-1772-2C4A-B844-6052AE19487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="3520" windowWidth="27640" windowHeight="16860" xr2:uid="{3BC47047-F65C-0A48-AEC1-47393041CD69}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043AFDC5-9638-F840-89B6-99E625166384}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
